--- a/최종발표/11.용어사전정의.xlsx
+++ b/최종발표/11.용어사전정의.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\최종발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF153EB-0F33-41AA-A581-269FD21536BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BE76BA-0389-4FDA-A703-98F432E870F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="속성취합" sheetId="1" r:id="rId1"/>
     <sheet name="유일속성음절분리" sheetId="2" r:id="rId2"/>
+    <sheet name="용어정의" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="203">
   <si>
     <t>엔티티 타입명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>누적포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원정보_아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -440,7 +437,408 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅇ</t>
+    <t>임시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최애</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비밀 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">유효 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동의어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별문자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDEX 속성과 같은 역할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화상영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELEASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화가 출시함'을 의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름'을 의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIRECTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREVIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BINARY_FLOAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERIFICATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL, TTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUN, SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트활용방식 타입 : BINARY_FLOAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 : min / 상영일자 타입 : DATE()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOK(ING)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목
+사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYYYMMDD형식의 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYYYMMDDHHmmss형식의 텍스트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATCHED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +846,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +885,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -496,7 +909,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -504,11 +917,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -516,9 +938,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -534,6 +953,36 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -818,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D27"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -829,869 +1278,886 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
+      <c r="E2" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>66</v>
+      <c r="G2" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>82</v>
+      <c r="I2" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="I3" s="10"/>
       <c r="J3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>47</v>
+      <c r="E4" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="I4" s="10"/>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="10"/>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>92</v>
+      <c r="I6" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
+      <c r="E7" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="I7" s="10"/>
       <c r="J7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="1" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="1" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>54</v>
+      <c r="E10" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="I10" s="10"/>
       <c r="J10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>78</v>
+        <v>49</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>93</v>
+      <c r="I11" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="G12" s="10"/>
       <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="10"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="10"/>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>57</v>
+      <c r="E15" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="10"/>
+      <c r="B17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="I17" s="10"/>
+      <c r="J17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="10"/>
+      <c r="B18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>81</v>
+      <c r="G19" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="I19" s="10"/>
       <c r="J19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>61</v>
+      <c r="E20" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="G20" s="10"/>
       <c r="H20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="4"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="10"/>
       <c r="F22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B24" s="6"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B25" s="6"/>
+      <c r="C25" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B24" s="7"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B25" s="7"/>
-      <c r="C25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>62</v>
+      <c r="E25" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B26" s="7"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="7" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B27" s="6"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B27" s="7"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="B34" s="6"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="B35" s="6"/>
+      <c r="D35" s="6"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="6"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="B38" s="6"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="B39" s="6"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="D42" s="6"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B43" s="7"/>
-      <c r="D43" s="7"/>
+      <c r="B43" s="6"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="B44" s="6"/>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="B45" s="6"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="B46" s="6"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="B47" s="6"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="B48" s="6"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="B49" s="6"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="B50" s="6"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="B51" s="6"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="B52" s="6"/>
+      <c r="D52" s="6"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="B53" s="6"/>
+      <c r="D53" s="6"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B54" s="7"/>
-      <c r="D54" s="7"/>
+      <c r="B54" s="6"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B55" s="7"/>
-      <c r="D55" s="7"/>
+      <c r="B55" s="6"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B56" s="7"/>
-      <c r="D56" s="7"/>
+      <c r="B56" s="6"/>
+      <c r="D56" s="6"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B57" s="7"/>
-      <c r="D57" s="7"/>
+      <c r="B57" s="6"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B58" s="7"/>
-      <c r="D58" s="7"/>
+      <c r="B58" s="6"/>
+      <c r="D58" s="6"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B59" s="7"/>
-      <c r="D59" s="7"/>
+      <c r="B59" s="6"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B60" s="7"/>
-      <c r="D60" s="7"/>
+      <c r="B60" s="6"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B61" s="7"/>
-      <c r="D61" s="7"/>
+      <c r="B61" s="6"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B62" s="7"/>
-      <c r="D62" s="7"/>
+      <c r="B62" s="6"/>
+      <c r="D62" s="6"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B63" s="7"/>
-      <c r="D63" s="7"/>
+      <c r="B63" s="6"/>
+      <c r="D63" s="6"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B64" s="7"/>
-      <c r="D64" s="7"/>
+      <c r="B64" s="6"/>
+      <c r="D64" s="6"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B65" s="7"/>
-      <c r="D65" s="7"/>
+      <c r="B65" s="6"/>
+      <c r="D65" s="6"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B66" s="7"/>
-      <c r="D66" s="7"/>
+      <c r="B66" s="6"/>
+      <c r="D66" s="6"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B67" s="7"/>
-      <c r="D67" s="7"/>
+      <c r="B67" s="6"/>
+      <c r="D67" s="6"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B68" s="7"/>
-      <c r="D68" s="7"/>
+      <c r="B68" s="6"/>
+      <c r="D68" s="6"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B69" s="7"/>
-      <c r="D69" s="7"/>
+      <c r="B69" s="6"/>
+      <c r="D69" s="6"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B70" s="7"/>
-      <c r="D70" s="7"/>
+      <c r="B70" s="6"/>
+      <c r="D70" s="6"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B71" s="7"/>
-      <c r="D71" s="7"/>
+      <c r="B71" s="6"/>
+      <c r="D71" s="6"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B72" s="7"/>
-      <c r="D72" s="7"/>
+      <c r="B72" s="6"/>
+      <c r="D72" s="6"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B73" s="7"/>
-      <c r="D73" s="7"/>
+      <c r="B73" s="6"/>
+      <c r="D73" s="6"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B74" s="7"/>
-      <c r="D74" s="7"/>
+      <c r="B74" s="6"/>
+      <c r="D74" s="6"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B75" s="7"/>
-      <c r="D75" s="7"/>
+      <c r="B75" s="6"/>
+      <c r="D75" s="6"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B76" s="7"/>
-      <c r="D76" s="7"/>
+      <c r="B76" s="6"/>
+      <c r="D76" s="6"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B77" s="7"/>
-      <c r="D77" s="7"/>
+      <c r="B77" s="6"/>
+      <c r="D77" s="6"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B78" s="7"/>
-      <c r="D78" s="7"/>
+      <c r="B78" s="6"/>
+      <c r="D78" s="6"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B79" s="7"/>
-      <c r="D79" s="7"/>
+      <c r="B79" s="6"/>
+      <c r="D79" s="6"/>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B80" s="7"/>
-      <c r="D80" s="7"/>
+      <c r="B80" s="6"/>
+      <c r="D80" s="6"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B81" s="7"/>
-      <c r="D81" s="7"/>
+      <c r="B81" s="6"/>
+      <c r="D81" s="6"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B82" s="7"/>
-      <c r="D82" s="7"/>
+      <c r="B82" s="6"/>
+      <c r="D82" s="6"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B83" s="7"/>
-      <c r="D83" s="7"/>
+      <c r="B83" s="6"/>
+      <c r="D83" s="6"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B84" s="7"/>
-      <c r="D84" s="7"/>
+      <c r="B84" s="6"/>
+      <c r="D84" s="6"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B85" s="7"/>
-      <c r="D85" s="7"/>
+      <c r="B85" s="6"/>
+      <c r="D85" s="6"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B86" s="7"/>
-      <c r="D86" s="7"/>
+      <c r="B86" s="6"/>
+      <c r="D86" s="6"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B87" s="7"/>
-      <c r="D87" s="7"/>
+      <c r="B87" s="6"/>
+      <c r="D87" s="6"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B88" s="7"/>
-      <c r="D88" s="7"/>
+      <c r="B88" s="6"/>
+      <c r="D88" s="6"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B89" s="7"/>
-      <c r="D89" s="7"/>
+      <c r="B89" s="6"/>
+      <c r="D89" s="6"/>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B90" s="7"/>
-      <c r="D90" s="7"/>
+      <c r="B90" s="6"/>
+      <c r="D90" s="6"/>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B91" s="7"/>
-      <c r="D91" s="7"/>
+      <c r="B91" s="6"/>
+      <c r="D91" s="6"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B92" s="7"/>
-      <c r="D92" s="7"/>
+      <c r="B92" s="6"/>
+      <c r="D92" s="6"/>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B93" s="7"/>
-      <c r="D93" s="7"/>
+      <c r="B93" s="6"/>
+      <c r="D93" s="6"/>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B94" s="7"/>
+      <c r="B94" s="6"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B95" s="7"/>
+      <c r="B95" s="6"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B96" s="7"/>
+      <c r="B96" s="6"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B97" s="7"/>
+      <c r="B97" s="6"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B98" s="7"/>
+      <c r="B98" s="6"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B99" s="7"/>
+      <c r="B99" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="E25:E27"/>
     <mergeCell ref="I2:I5"/>
     <mergeCell ref="I6:I10"/>
     <mergeCell ref="I11:I15"/>
@@ -1702,23 +2168,6 @@
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C14:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1727,460 +2176,3469 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39597F9E-2730-4BAF-B31A-DDD91DD6FCA1}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="20.58203125" customWidth="1"/>
-    <col min="3" max="5" width="10.58203125" style="8" customWidth="1"/>
+    <col min="3" max="5" width="10.58203125" customWidth="1"/>
+    <col min="7" max="8" width="20.58203125" customWidth="1"/>
+    <col min="9" max="11" width="10.58203125" style="7" customWidth="1"/>
+    <col min="13" max="14" width="20.58203125" customWidth="1"/>
+    <col min="15" max="17" width="10.58203125" customWidth="1"/>
+    <col min="19" max="20" width="20.58203125" customWidth="1"/>
+    <col min="21" max="23" width="10.58203125" customWidth="1"/>
+    <col min="25" max="26" width="20.58203125" customWidth="1"/>
+    <col min="27" max="29" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="G2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="S2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="W2" s="8"/>
+      <c r="Y2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+    </row>
+    <row r="3" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="K3" s="9"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="W3" s="8"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+    </row>
+    <row r="4" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="G4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="W4" s="8"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD4" s="8"/>
+    </row>
+    <row r="5" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD5" s="8"/>
+    </row>
+    <row r="6" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="S6" s="11"/>
+      <c r="T6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD6" s="8"/>
+    </row>
+    <row r="7" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="G7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD7" s="8"/>
+    </row>
+    <row r="8" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+    </row>
+    <row r="9" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+    </row>
+    <row r="10" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+    </row>
+    <row r="11" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="W11" s="8"/>
+      <c r="Y11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+    </row>
+    <row r="12" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="J12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="S12" s="11"/>
+      <c r="T12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="W12" s="8"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+    </row>
+    <row r="13" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+    </row>
+    <row r="14" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="G14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="S14" s="11"/>
+      <c r="T14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="W14" s="8"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+    </row>
+    <row r="15" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" s="8"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="W15" s="8"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD15" s="8"/>
+    </row>
+    <row r="16" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="8"/>
+      <c r="S16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD16" s="8"/>
+    </row>
+    <row r="17" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="11"/>
+      <c r="B17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="S17" s="11"/>
+      <c r="T17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="W17" s="8"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+    </row>
+    <row r="18" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="11"/>
+      <c r="B18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="S18" s="11"/>
+      <c r="T18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="W18" s="8"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+    </row>
+    <row r="19" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+    </row>
+    <row r="20" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q20" s="8"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+    </row>
+    <row r="21" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+    </row>
+    <row r="22" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="G23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="G25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="G26" s="10"/>
+      <c r="H26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="G27" s="10"/>
+      <c r="H27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q27" s="8"/>
+    </row>
+    <row r="28" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="9:13" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="9:13" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="9:13" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="9:13" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="9:13" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="9:13" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="9:13" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="9:13" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="9:13" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="Y2:Y5"/>
+    <mergeCell ref="Y6:Y10"/>
+    <mergeCell ref="Y11:Y15"/>
+    <mergeCell ref="Y16:Y19"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="S5:S10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="S16:S18"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M10:M14"/>
+    <mergeCell ref="M15:M19"/>
+    <mergeCell ref="M20:M24"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G13"/>
+    <mergeCell ref="G14:G22"/>
+    <mergeCell ref="G23:G24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE87F922-0E02-42C3-B79E-96DC0D816C9E}">
+  <dimension ref="A1:F194"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="4" width="15.58203125" customWidth="1"/>
+    <col min="5" max="5" width="40.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+      <c r="A32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6" t="s">
+      <c r="B36" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A43" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="3:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="3:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="3:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="3:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="3:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="3:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="3:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="3:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="3:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="D43" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+    </row>
+    <row r="87" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+    </row>
+    <row r="88" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+    </row>
+    <row r="95" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+    </row>
+    <row r="96" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+    </row>
+    <row r="97" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+    </row>
+    <row r="98" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+    </row>
+    <row r="99" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+    </row>
+    <row r="100" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+    </row>
+    <row r="106" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+    </row>
+    <row r="107" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+    </row>
+    <row r="108" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+    </row>
+    <row r="109" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+    </row>
+    <row r="110" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+    </row>
+    <row r="111" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+    </row>
+    <row r="112" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+    </row>
+    <row r="113" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+    </row>
+    <row r="114" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+    </row>
+    <row r="115" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+    </row>
+    <row r="116" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+    </row>
+    <row r="117" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+    </row>
+    <row r="118" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+    </row>
+    <row r="119" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+    </row>
+    <row r="120" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+    </row>
+    <row r="121" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+    </row>
+    <row r="122" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+    </row>
+    <row r="123" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+    </row>
+    <row r="124" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+    </row>
+    <row r="125" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+    </row>
+    <row r="126" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+    </row>
+    <row r="127" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+    </row>
+    <row r="128" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A128" s="9"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+    </row>
+    <row r="129" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+    </row>
+    <row r="130" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A130" s="9"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+    </row>
+    <row r="131" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A131" s="9"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+    </row>
+    <row r="132" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+    </row>
+    <row r="133" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+    </row>
+    <row r="134" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+    </row>
+    <row r="135" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+    </row>
+    <row r="136" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+    </row>
+    <row r="137" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+    </row>
+    <row r="182" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+    </row>
+    <row r="188" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+    </row>
+    <row r="191" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A27"/>
-  </mergeCells>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E47">
+    <sortCondition ref="A1:A47"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/최종발표/11.용어사전정의.xlsx
+++ b/최종발표/11.용어사전정의.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\최종발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BE76BA-0389-4FDA-A703-98F432E870F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389F08C7-9E89-40A7-9937-BBC1253FD1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="825" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="속성취합" sheetId="1" r:id="rId1"/>
     <sheet name="유일속성음절분리" sheetId="2" r:id="rId2"/>
     <sheet name="용어정의" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,828 +30,836 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="203">
   <si>
     <t>엔티티 타입명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>속성명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>엔티티타입명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>영화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>개봉일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>감독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시청등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상영시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>장르</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>줄거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예고편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>포스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>영화일정정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>영화_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>영화상영여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예매순위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예매율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>배우이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>생년월일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>영화인기정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>배우정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>본인인증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>식별아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>구분코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사용자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>임시아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>임시비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>본인인증여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시청가능여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>회원정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>비회원정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>회원정보_아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>최애장르</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>최애장르정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관리자정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>지역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>지역_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>영화관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상영방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상영금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>영화관_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>총좌석수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>누적좌석수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상영방식_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상영관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상영일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상영관_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상영일정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>좌석문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상영일정_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>좌석여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>좌석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관객방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>할인율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관객수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예매시각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예매_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>좌석_좌석문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관객방식_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예매좌석정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>결제방식_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>카드사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>카드번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>은행사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>계좌번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>QR코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>결제금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>결제방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>신용카드정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>무통장입금정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>인터넷결제정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>결제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>결제_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사용자_식별아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>결제시각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>유효여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시청여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>활용방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>활용포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>포인트_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>활용시각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>결제내역정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>포인트내역정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>속성분리1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>속성분리2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>속성분리3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>전화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>식별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>임시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>비밀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시청가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>누적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>최애</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">비밀 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>관객</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>계좌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>유효</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">유효 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>용어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>물리명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>동의어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용어정의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>식별문자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CHAR()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>INDEX 속성과 같은 역할</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>개봉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>영화상영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>순위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>배우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RELEASE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DATE()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NUMBER()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>영화가 출시함'을 의미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이름'을 의미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DIRECTOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CLASS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GENRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>STORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PREVIEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BLOB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>START</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CLOSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MOVIE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BINARY_FLOAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RANK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ACTOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PHONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VERIFICATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>총포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TOTAL, TTL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>POINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PWD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RUN, SCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>WAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PRICE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>포인트활용방식 타입 : BINARY_FLOAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SEAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>단위 : min / 상영일자 타입 : DATE()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>GOERS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NUMBER(,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>할인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BOOK(ING)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>제목
 사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BANK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ACCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>QR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>YYYYMMDD형식의 텍스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DATE </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TIMESTAMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>YYYYMMDDHHmmss형식의 텍스트</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>VALID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>WATCHED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어정의/비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -927,67 +935,71 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00C03656-51B7-43E4-AD3D-BD8C99C6AAEE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1267,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -1310,31 +1322,31 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="18" t="s">
         <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="18" t="s">
         <v>81</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -1342,95 +1354,95 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="10"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="10"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="C4" s="18"/>
       <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="18" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="10"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="18" t="s">
         <v>69</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="10"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="18" t="s">
         <v>91</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1438,119 +1450,119 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="10"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="18" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="10"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="10"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="18" t="s">
         <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="10"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="18" t="s">
         <v>77</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="18" t="s">
         <v>92</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -1558,123 +1570,123 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="10"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="18" t="s">
         <v>78</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="10"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="10"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="10"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="18" t="s">
         <v>79</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="18" t="s">
         <v>93</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -1682,91 +1694,91 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="10"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="10"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="18" t="s">
         <v>80</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="10"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="18" t="s">
         <v>60</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="1" t="s">
         <v>75</v>
       </c>
@@ -1774,11 +1786,11 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="10"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="1" t="s">
         <v>49</v>
       </c>
@@ -1786,11 +1798,11 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E22" s="10"/>
+        <v>172</v>
+      </c>
+      <c r="E22" s="18"/>
       <c r="F22" s="1" t="s">
         <v>55</v>
       </c>
@@ -1798,37 +1810,37 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="18" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B24" s="6"/>
-      <c r="C24" s="10"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B25" s="6"/>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="18" t="s">
         <v>61</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1837,22 +1849,22 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B26" s="6"/>
-      <c r="C26" s="10"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B27" s="6"/>
-      <c r="C27" s="10"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="1" t="s">
         <v>62</v>
       </c>
@@ -2145,10 +2157,10 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C13"/>
     <mergeCell ref="C14:C22"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="E2:E3"/>
@@ -2169,7 +2181,7 @@
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="G19:G20"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2275,10 +2287,10 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2288,7 +2300,7 @@
         <v>109</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="18" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -2300,7 +2312,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="19" t="s">
         <v>44</v>
       </c>
       <c r="N2" s="8" t="s">
@@ -2313,7 +2325,7 @@
         <v>109</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="19" t="s">
         <v>65</v>
       </c>
       <c r="T2" s="8" t="s">
@@ -2326,7 +2338,7 @@
         <v>109</v>
       </c>
       <c r="W2" s="8"/>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="18" t="s">
         <v>81</v>
       </c>
       <c r="Z2" s="8" t="s">
@@ -2342,8 +2354,8 @@
       <c r="AD2" s="8"/>
     </row>
     <row r="3" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2351,7 +2363,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="G3" s="10"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
@@ -2363,7 +2375,7 @@
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="11"/>
+      <c r="M3" s="19"/>
       <c r="N3" s="8" t="s">
         <v>27</v>
       </c>
@@ -2372,7 +2384,7 @@
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-      <c r="S3" s="11"/>
+      <c r="S3" s="19"/>
       <c r="T3" s="8" t="s">
         <v>63</v>
       </c>
@@ -2383,7 +2395,7 @@
         <v>116</v>
       </c>
       <c r="W3" s="8"/>
-      <c r="Y3" s="10"/>
+      <c r="Y3" s="18"/>
       <c r="Z3" s="8" t="s">
         <v>76</v>
       </c>
@@ -2397,18 +2409,18 @@
       <c r="AD3" s="8"/>
     </row>
     <row r="4" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="E4" s="8"/>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="18" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -2420,7 +2432,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="19" t="s">
         <v>46</v>
       </c>
       <c r="N4" s="8" t="s">
@@ -2433,7 +2445,7 @@
         <v>109</v>
       </c>
       <c r="Q4" s="8"/>
-      <c r="S4" s="11"/>
+      <c r="S4" s="19"/>
       <c r="T4" s="8" t="s">
         <v>64</v>
       </c>
@@ -2444,7 +2456,7 @@
         <v>117</v>
       </c>
       <c r="W4" s="8"/>
-      <c r="Y4" s="10"/>
+      <c r="Y4" s="18"/>
       <c r="Z4" s="8" t="s">
         <v>66</v>
       </c>
@@ -2460,8 +2472,8 @@
       <c r="AD4" s="8"/>
     </row>
     <row r="5" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2469,7 +2481,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="5" t="s">
         <v>28</v>
       </c>
@@ -2481,7 +2493,7 @@
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="11"/>
+      <c r="M5" s="19"/>
       <c r="N5" s="8" t="s">
         <v>27</v>
       </c>
@@ -2490,7 +2502,7 @@
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="19" t="s">
         <v>69</v>
       </c>
       <c r="T5" s="8" t="s">
@@ -2505,7 +2517,7 @@
       <c r="W5" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="18"/>
       <c r="Z5" s="8" t="s">
         <v>70</v>
       </c>
@@ -2521,8 +2533,8 @@
       <c r="AD5" s="8"/>
     </row>
     <row r="6" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -2530,7 +2542,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="5" t="s">
         <v>29</v>
       </c>
@@ -2542,7 +2554,7 @@
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="11"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="8" t="s">
         <v>45</v>
       </c>
@@ -2555,7 +2567,7 @@
       <c r="Q6" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="S6" s="19"/>
       <c r="T6" s="8" t="s">
         <v>67</v>
       </c>
@@ -2568,7 +2580,7 @@
       <c r="W6" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="Y6" s="10" t="s">
+      <c r="Y6" s="18" t="s">
         <v>91</v>
       </c>
       <c r="Z6" s="8" t="s">
@@ -2586,18 +2598,18 @@
       <c r="AD6" s="8"/>
     </row>
     <row r="7" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="18" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -2611,7 +2623,7 @@
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="19" t="s">
         <v>47</v>
       </c>
       <c r="N7" s="8" t="s">
@@ -2624,7 +2636,7 @@
         <v>109</v>
       </c>
       <c r="Q7" s="8"/>
-      <c r="S7" s="11"/>
+      <c r="S7" s="19"/>
       <c r="T7" s="8" t="s">
         <v>49</v>
       </c>
@@ -2637,7 +2649,7 @@
       <c r="W7" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="Y7" s="10"/>
+      <c r="Y7" s="18"/>
       <c r="Z7" s="8" t="s">
         <v>83</v>
       </c>
@@ -2653,8 +2665,8 @@
       <c r="AD7" s="8"/>
     </row>
     <row r="8" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -2662,7 +2674,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="5" t="s">
         <v>32</v>
       </c>
@@ -2676,7 +2688,7 @@
         <v>97</v>
       </c>
       <c r="L8" s="8"/>
-      <c r="M8" s="11"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="8" t="s">
         <v>47</v>
       </c>
@@ -2687,7 +2699,7 @@
         <v>111</v>
       </c>
       <c r="Q8" s="8"/>
-      <c r="S8" s="11"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="8" t="s">
         <v>55</v>
       </c>
@@ -2700,7 +2712,7 @@
       <c r="W8" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="Y8" s="10"/>
+      <c r="Y8" s="18"/>
       <c r="Z8" s="8" t="s">
         <v>84</v>
       </c>
@@ -2714,8 +2726,8 @@
       <c r="AD8" s="8"/>
     </row>
     <row r="9" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -2723,7 +2735,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="5" t="s">
         <v>27</v>
       </c>
@@ -2733,7 +2745,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="11"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="8" t="s">
         <v>48</v>
       </c>
@@ -2744,7 +2756,7 @@
         <v>112</v>
       </c>
       <c r="Q9" s="8"/>
-      <c r="S9" s="11"/>
+      <c r="S9" s="19"/>
       <c r="T9" s="8" t="s">
         <v>58</v>
       </c>
@@ -2757,7 +2769,7 @@
       <c r="W9" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="Y9" s="10"/>
+      <c r="Y9" s="18"/>
       <c r="Z9" s="8" t="s">
         <v>85</v>
       </c>
@@ -2771,8 +2783,8 @@
       <c r="AD9" s="8"/>
     </row>
     <row r="10" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -2780,7 +2792,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="5" t="s">
         <v>22</v>
       </c>
@@ -2792,7 +2804,7 @@
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="19" t="s">
         <v>53</v>
       </c>
       <c r="N10" s="8" t="s">
@@ -2805,7 +2817,7 @@
         <v>109</v>
       </c>
       <c r="Q10" s="8"/>
-      <c r="S10" s="11"/>
+      <c r="S10" s="19"/>
       <c r="T10" s="8" t="s">
         <v>68</v>
       </c>
@@ -2818,7 +2830,7 @@
       <c r="W10" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="Y10" s="10"/>
+      <c r="Y10" s="18"/>
       <c r="Z10" s="8" t="s">
         <v>86</v>
       </c>
@@ -2832,8 +2844,8 @@
       <c r="AD10" s="8"/>
     </row>
     <row r="11" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -2841,7 +2853,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="5" t="s">
         <v>23</v>
       </c>
@@ -2851,7 +2863,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="11"/>
+      <c r="M11" s="19"/>
       <c r="N11" s="8" t="s">
         <v>49</v>
       </c>
@@ -2864,7 +2876,7 @@
       <c r="Q11" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="S11" s="19" t="s">
         <v>77</v>
       </c>
       <c r="T11" s="8" t="s">
@@ -2877,7 +2889,7 @@
         <v>109</v>
       </c>
       <c r="W11" s="8"/>
-      <c r="Y11" s="10" t="s">
+      <c r="Y11" s="18" t="s">
         <v>92</v>
       </c>
       <c r="Z11" s="8" t="s">
@@ -2893,10 +2905,10 @@
       <c r="AD11" s="8"/>
     </row>
     <row r="12" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -2908,7 +2920,7 @@
       <c r="E12" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="5" t="s">
         <v>33</v>
       </c>
@@ -2920,7 +2932,7 @@
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="11"/>
+      <c r="M12" s="19"/>
       <c r="N12" s="8" t="s">
         <v>50</v>
       </c>
@@ -2933,7 +2945,7 @@
       <c r="Q12" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="S12" s="11"/>
+      <c r="S12" s="19"/>
       <c r="T12" s="8" t="s">
         <v>29</v>
       </c>
@@ -2944,7 +2956,7 @@
         <v>101</v>
       </c>
       <c r="W12" s="8"/>
-      <c r="Y12" s="10"/>
+      <c r="Y12" s="18"/>
       <c r="Z12" s="8" t="s">
         <v>87</v>
       </c>
@@ -2958,18 +2970,18 @@
       <c r="AD12" s="8"/>
     </row>
     <row r="13" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="5" t="s">
         <v>34</v>
       </c>
@@ -2981,7 +2993,7 @@
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="11"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="8" t="s">
         <v>51</v>
       </c>
@@ -2994,7 +3006,7 @@
       <c r="Q13" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="S13" s="19" t="s">
         <v>78</v>
       </c>
       <c r="T13" s="8" t="s">
@@ -3009,7 +3021,7 @@
       <c r="W13" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="Y13" s="10"/>
+      <c r="Y13" s="18"/>
       <c r="Z13" s="8" t="s">
         <v>88</v>
       </c>
@@ -3023,18 +3035,18 @@
       <c r="AD13" s="8"/>
     </row>
     <row r="14" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -3046,7 +3058,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="11"/>
+      <c r="M14" s="19"/>
       <c r="N14" s="8" t="s">
         <v>52</v>
       </c>
@@ -3059,7 +3071,7 @@
       <c r="Q14" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="S14" s="11"/>
+      <c r="S14" s="19"/>
       <c r="T14" s="8" t="s">
         <v>71</v>
       </c>
@@ -3070,7 +3082,7 @@
         <v>119</v>
       </c>
       <c r="W14" s="8"/>
-      <c r="Y14" s="10"/>
+      <c r="Y14" s="18"/>
       <c r="Z14" s="8" t="s">
         <v>40</v>
       </c>
@@ -3084,18 +3096,18 @@
       <c r="AD14" s="8"/>
     </row>
     <row r="15" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>104</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="5" t="s">
         <v>38</v>
       </c>
@@ -3107,7 +3119,7 @@
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="19" t="s">
         <v>56</v>
       </c>
       <c r="N15" s="8" t="s">
@@ -3120,7 +3132,7 @@
         <v>109</v>
       </c>
       <c r="Q15" s="8"/>
-      <c r="S15" s="11"/>
+      <c r="S15" s="19"/>
       <c r="T15" s="8" t="s">
         <v>72</v>
       </c>
@@ -3131,7 +3143,7 @@
         <v>97</v>
       </c>
       <c r="W15" s="8"/>
-      <c r="Y15" s="10"/>
+      <c r="Y15" s="18"/>
       <c r="Z15" s="8" t="s">
         <v>82</v>
       </c>
@@ -3147,10 +3159,10 @@
       <c r="AD15" s="8"/>
     </row>
     <row r="16" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -3162,7 +3174,7 @@
       <c r="E16" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="6" t="s">
         <v>27</v>
       </c>
@@ -3172,7 +3184,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="11"/>
+      <c r="M16" s="19"/>
       <c r="N16" s="8" t="s">
         <v>54</v>
       </c>
@@ -3183,7 +3195,7 @@
         <v>114</v>
       </c>
       <c r="Q16" s="8"/>
-      <c r="S16" s="11" t="s">
+      <c r="S16" s="19" t="s">
         <v>79</v>
       </c>
       <c r="T16" s="8" t="s">
@@ -3198,7 +3210,7 @@
       <c r="W16" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="Y16" s="10" t="s">
+      <c r="Y16" s="18" t="s">
         <v>93</v>
       </c>
       <c r="Z16" s="8" t="s">
@@ -3216,18 +3228,18 @@
       <c r="AD16" s="8"/>
     </row>
     <row r="17" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="11"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="6" t="s">
         <v>39</v>
       </c>
@@ -3237,7 +3249,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="11"/>
+      <c r="M17" s="19"/>
       <c r="N17" s="8" t="s">
         <v>49</v>
       </c>
@@ -3250,7 +3262,7 @@
       <c r="Q17" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="S17" s="11"/>
+      <c r="S17" s="19"/>
       <c r="T17" s="8" t="s">
         <v>73</v>
       </c>
@@ -3261,7 +3273,7 @@
         <v>119</v>
       </c>
       <c r="W17" s="8"/>
-      <c r="Y17" s="10"/>
+      <c r="Y17" s="18"/>
       <c r="Z17" s="8" t="s">
         <v>40</v>
       </c>
@@ -3275,18 +3287,18 @@
       <c r="AD17" s="8"/>
     </row>
     <row r="18" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="6" t="s">
         <v>22</v>
       </c>
@@ -3298,7 +3310,7 @@
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="11"/>
+      <c r="M18" s="19"/>
       <c r="N18" s="8" t="s">
         <v>55</v>
       </c>
@@ -3311,7 +3323,7 @@
       <c r="Q18" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="S18" s="11"/>
+      <c r="S18" s="19"/>
       <c r="T18" s="8" t="s">
         <v>74</v>
       </c>
@@ -3322,7 +3334,7 @@
         <v>97</v>
       </c>
       <c r="W18" s="8"/>
-      <c r="Y18" s="10"/>
+      <c r="Y18" s="18"/>
       <c r="Z18" s="8" t="s">
         <v>90</v>
       </c>
@@ -3336,10 +3348,10 @@
       <c r="AD18" s="8"/>
     </row>
     <row r="19" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -3351,7 +3363,7 @@
       <c r="E19" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="6" t="s">
         <v>23</v>
       </c>
@@ -3361,7 +3373,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="11"/>
+      <c r="M19" s="19"/>
       <c r="N19" s="8" t="s">
         <v>15</v>
       </c>
@@ -3374,7 +3386,7 @@
       <c r="Q19" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="S19" s="19" t="s">
         <v>80</v>
       </c>
       <c r="T19" s="8" t="s">
@@ -3389,7 +3401,7 @@
       <c r="W19" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="Y19" s="10"/>
+      <c r="Y19" s="18"/>
       <c r="Z19" s="8" t="s">
         <v>85</v>
       </c>
@@ -3403,18 +3415,18 @@
       <c r="AD19" s="8"/>
     </row>
     <row r="20" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="11"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="6" t="s">
         <v>33</v>
       </c>
@@ -3426,7 +3438,7 @@
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="19" t="s">
         <v>60</v>
       </c>
       <c r="N20" s="8" t="s">
@@ -3439,7 +3451,7 @@
         <v>109</v>
       </c>
       <c r="Q20" s="8"/>
-      <c r="S20" s="11"/>
+      <c r="S20" s="19"/>
       <c r="T20" s="8" t="s">
         <v>75</v>
       </c>
@@ -3461,7 +3473,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="6" t="s">
         <v>34</v>
       </c>
@@ -3473,7 +3485,7 @@
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="11"/>
+      <c r="M21" s="19"/>
       <c r="N21" s="8" t="s">
         <v>49</v>
       </c>
@@ -3499,9 +3511,9 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>113</v>
@@ -3511,7 +3523,7 @@
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="11"/>
+      <c r="M22" s="19"/>
       <c r="N22" s="8" t="s">
         <v>55</v>
       </c>
@@ -3531,7 +3543,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="18" t="s">
         <v>42</v>
       </c>
       <c r="H23" s="6" t="s">
@@ -3545,7 +3557,7 @@
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="11"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="8" t="s">
         <v>58</v>
       </c>
@@ -3565,7 +3577,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="6" t="s">
         <v>41</v>
       </c>
@@ -3577,7 +3589,7 @@
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="11"/>
+      <c r="M24" s="19"/>
       <c r="N24" s="8" t="s">
         <v>59</v>
       </c>
@@ -3595,7 +3607,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="18" t="s">
         <v>43</v>
       </c>
       <c r="H25" s="6" t="s">
@@ -3607,7 +3619,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="11" t="s">
+      <c r="M25" s="19" t="s">
         <v>61</v>
       </c>
       <c r="N25" s="8" t="s">
@@ -3622,7 +3634,7 @@
       <c r="Q25" s="8"/>
     </row>
     <row r="26" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="G26" s="10"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="6" t="s">
         <v>38</v>
       </c>
@@ -3634,7 +3646,7 @@
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="11"/>
+      <c r="M26" s="19"/>
       <c r="N26" s="8" t="s">
         <v>61</v>
       </c>
@@ -3647,7 +3659,7 @@
       <c r="Q26" s="8"/>
     </row>
     <row r="27" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="G27" s="10"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="6" t="s">
         <v>27</v>
       </c>
@@ -3657,15 +3669,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="11"/>
+      <c r="M27" s="19"/>
       <c r="N27" s="8" t="s">
         <v>62</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q27" s="8"/>
     </row>
@@ -3797,7 +3809,7 @@
     <mergeCell ref="G14:G22"/>
     <mergeCell ref="G23:G24"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3808,7 +3820,7 @@
   <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3828,23 +3840,23 @@
         <v>128</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -3854,26 +3866,26 @@
         <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
-        <v>150</v>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="F4" s="9"/>
     </row>
@@ -3882,10 +3894,10 @@
         <v>81</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="17"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
@@ -3894,10 +3906,10 @@
         <v>121</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="17"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
@@ -3906,10 +3918,10 @@
         <v>115</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="17"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
@@ -3918,11 +3930,11 @@
         <v>112</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -3932,10 +3944,10 @@
         <v>106</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="17"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
@@ -3944,26 +3956,26 @@
         <v>111</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="17"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
@@ -3972,11 +3984,11 @@
         <v>97</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -3986,10 +3998,10 @@
         <v>26</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="17"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
@@ -3998,11 +4010,11 @@
         <v>38</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="19" t="s">
-        <v>144</v>
+      <c r="D14" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -4012,10 +4024,10 @@
         <v>110</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="17"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
@@ -4023,24 +4035,24 @@
       <c r="A16" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="19" t="s">
-        <v>149</v>
+      <c r="D16" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -4050,44 +4062,44 @@
         <v>117</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="19" t="s">
+      <c r="E18" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>114</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="17"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
@@ -4096,10 +4108,10 @@
         <v>123</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
@@ -4108,32 +4120,32 @@
         <v>8</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>105</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="F23" s="9"/>
     </row>
@@ -4142,11 +4154,11 @@
         <v>37</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -4155,27 +4167,27 @@
       <c r="A25" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>163</v>
+      <c r="B25" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="19" t="s">
-        <v>165</v>
+      <c r="D25" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
@@ -4184,11 +4196,11 @@
         <v>12</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="19" t="s">
-        <v>159</v>
+      <c r="D27" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -4198,10 +4210,10 @@
         <v>65</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="17"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
@@ -4210,23 +4222,23 @@
         <v>122</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="17"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -4236,10 +4248,10 @@
         <v>120</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="17"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
@@ -4248,34 +4260,34 @@
         <v>27</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>190</v>
+        <v>134</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>197</v>
+      <c r="E33" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="F33" s="9"/>
     </row>
@@ -4285,7 +4297,7 @@
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="17"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
@@ -4294,11 +4306,11 @@
         <v>10</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C35" s="9"/>
-      <c r="D35" s="19" t="s">
-        <v>144</v>
+      <c r="D35" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -4308,24 +4320,24 @@
         <v>22</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="19" t="s">
-        <v>149</v>
+        <v>168</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A37" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C37" s="9"/>
-      <c r="D37" s="17"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
@@ -4334,10 +4346,10 @@
         <v>60</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C38" s="9"/>
-      <c r="D38" s="17"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
     </row>
@@ -4346,11 +4358,11 @@
         <v>11</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C39" s="9"/>
-      <c r="D39" s="19" t="s">
-        <v>158</v>
+      <c r="D39" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
@@ -4360,10 +4372,10 @@
         <v>113</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C40" s="9"/>
-      <c r="D40" s="17"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
     </row>
@@ -4372,10 +4384,10 @@
         <v>107</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="17"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
     </row>
@@ -4384,10 +4396,10 @@
         <v>118</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="17"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
     </row>
@@ -4396,13 +4408,13 @@
         <v>101</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>149</v>
+      <c r="D43" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -4412,11 +4424,11 @@
         <v>13</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -4426,11 +4438,11 @@
         <v>92</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="19" t="s">
-        <v>149</v>
+      <c r="D45" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -4440,11 +4452,11 @@
         <v>62</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="19" t="s">
-        <v>187</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -4453,9 +4465,9 @@
       <c r="A47" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B47" s="17"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="17"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
@@ -5639,7 +5651,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E47">
     <sortCondition ref="A1:A47"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/최종발표/11.용어사전정의.xlsx
+++ b/최종발표/11.용어사전정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\최종발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389F08C7-9E89-40A7-9937-BBC1253FD1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9705EF9B-5B9B-4630-97BF-34EDD3065CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="825" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21900" yWindow="3900" windowWidth="14400" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="속성취합" sheetId="1" r:id="rId1"/>
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -2153,23 +2153,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="E25:E27"/>
     <mergeCell ref="I2:I5"/>
     <mergeCell ref="I6:I10"/>
     <mergeCell ref="I11:I15"/>
@@ -2180,6 +2163,23 @@
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2190,7 +2190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39597F9E-2730-4BAF-B31A-DDD91DD6FCA1}">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
@@ -3781,20 +3781,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="Y2:Y5"/>
-    <mergeCell ref="Y6:Y10"/>
-    <mergeCell ref="Y11:Y15"/>
-    <mergeCell ref="Y16:Y19"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="S5:S10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="S16:S18"/>
     <mergeCell ref="G25:G27"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="M4:M6"/>
@@ -3808,6 +3794,20 @@
     <mergeCell ref="G7:G13"/>
     <mergeCell ref="G14:G22"/>
     <mergeCell ref="G23:G24"/>
+    <mergeCell ref="Y2:Y5"/>
+    <mergeCell ref="Y6:Y10"/>
+    <mergeCell ref="Y11:Y15"/>
+    <mergeCell ref="Y16:Y19"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="S5:S10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="S16:S18"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="S19:S20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3819,7 +3819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE87F922-0E02-42C3-B79E-96DC0D816C9E}">
   <dimension ref="A1:F194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/최종발표/11.용어사전정의.xlsx
+++ b/최종발표/11.용어사전정의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\최종발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\데베설\git_corp\My-Cinema\최종발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389F08C7-9E89-40A7-9937-BBC1253FD1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A41B29-E741-4E2B-98FD-82313A5E2D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="825" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="속성취합" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="238">
   <si>
     <t>엔티티 타입명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -625,14 +625,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>영화가 출시함'을 의미</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름'을 의미</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DIRECTOR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -839,6 +831,154 @@
   </si>
   <si>
     <t>용어정의/비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷 결제를 위한 QR코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드와 계좌를 특정할 수 있는 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화를 촬영한 감독</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매에 따른 비용을 지불</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무통장 입금 결제를 위한 은행별 계좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화를 시청하는 인물 / 일반, 청소년, 경로, 우대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매에 따른 비용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일정에 따른 예매한 관객의 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화를 연기한 배우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 계정과 사용자 신원의 연결 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 계정에 접속하기 위한 문자 및 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화가 상영함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화가 출시함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화의 상영이 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인에 따른 정해진 숫자 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 튜플과 비교하여 매겨진 순위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영되는 영화를 관람</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심의에 따른 권장 시청 나이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자를 식별하기 위한 문자 및 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 사실이 이고 아님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화의 흥미를 돋구기 위해 배급사에서 배포하는 짧은 영상물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청을 위해 상영관, 상영일정, 영화 등을 특정함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불이 되지 않았음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 튜플과 비교하여 매겨진 비율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 기간만 보관하는 임의로 발급된 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화의 장르</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화의 상영이 종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관마다 갖는 고유의 시청 자리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화의 줄거리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용할 수 있는 최대 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호하는 특정 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제를 위해 사용하는 신용카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔티티의 종류를 판별하는 숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화의 포스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 금액 차감이 가능한 회원이 소유한 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 금액 차감율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소유한 값을 사용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1283,10 +1423,10 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="10" width="20.58203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="10" width="20.59765625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -1800,7 +1940,7 @@
       <c r="B22" s="6"/>
       <c r="C22" s="18"/>
       <c r="D22" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="1" t="s">
@@ -2153,23 +2293,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="E25:E27"/>
     <mergeCell ref="I2:I5"/>
     <mergeCell ref="I6:I10"/>
     <mergeCell ref="I11:I15"/>
@@ -2180,6 +2303,23 @@
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2194,21 +2334,21 @@
       <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="20.58203125" customWidth="1"/>
-    <col min="3" max="5" width="10.58203125" customWidth="1"/>
-    <col min="7" max="8" width="20.58203125" customWidth="1"/>
-    <col min="9" max="11" width="10.58203125" style="7" customWidth="1"/>
-    <col min="13" max="14" width="20.58203125" customWidth="1"/>
-    <col min="15" max="17" width="10.58203125" customWidth="1"/>
-    <col min="19" max="20" width="20.58203125" customWidth="1"/>
-    <col min="21" max="23" width="10.58203125" customWidth="1"/>
-    <col min="25" max="26" width="20.58203125" customWidth="1"/>
-    <col min="27" max="29" width="10.58203125" customWidth="1"/>
+    <col min="1" max="2" width="20.59765625" customWidth="1"/>
+    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="7" max="8" width="20.59765625" customWidth="1"/>
+    <col min="9" max="11" width="10.59765625" style="7" customWidth="1"/>
+    <col min="13" max="14" width="20.59765625" customWidth="1"/>
+    <col min="15" max="17" width="10.59765625" customWidth="1"/>
+    <col min="19" max="20" width="20.59765625" customWidth="1"/>
+    <col min="21" max="23" width="10.59765625" customWidth="1"/>
+    <col min="25" max="26" width="20.59765625" customWidth="1"/>
+    <col min="27" max="29" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2286,7 +2426,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
@@ -2353,7 +2493,7 @@
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
     </row>
-    <row r="3" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A3" s="19"/>
       <c r="B3" s="10" t="s">
         <v>4</v>
@@ -2408,7 +2548,7 @@
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
     </row>
-    <row r="4" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A4" s="19"/>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -2471,7 +2611,7 @@
       </c>
       <c r="AD4" s="8"/>
     </row>
-    <row r="5" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A5" s="19"/>
       <c r="B5" s="10" t="s">
         <v>7</v>
@@ -2532,7 +2672,7 @@
       </c>
       <c r="AD5" s="8"/>
     </row>
-    <row r="6" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A6" s="19"/>
       <c r="B6" s="10" t="s">
         <v>8</v>
@@ -2597,7 +2737,7 @@
       </c>
       <c r="AD6" s="8"/>
     </row>
-    <row r="7" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="B7" s="10" t="s">
         <v>9</v>
@@ -2664,7 +2804,7 @@
       </c>
       <c r="AD7" s="8"/>
     </row>
-    <row r="8" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A8" s="19"/>
       <c r="B8" s="10" t="s">
         <v>10</v>
@@ -2725,7 +2865,7 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
     </row>
-    <row r="9" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A9" s="19"/>
       <c r="B9" s="10" t="s">
         <v>11</v>
@@ -2782,7 +2922,7 @@
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
     </row>
-    <row r="10" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A10" s="19"/>
       <c r="B10" s="10" t="s">
         <v>12</v>
@@ -2843,7 +2983,7 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
     </row>
-    <row r="11" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A11" s="19"/>
       <c r="B11" s="10" t="s">
         <v>13</v>
@@ -2904,7 +3044,7 @@
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A12" s="19" t="s">
         <v>14</v>
       </c>
@@ -2969,7 +3109,7 @@
       <c r="AC12" s="8"/>
       <c r="AD12" s="8"/>
     </row>
-    <row r="13" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A13" s="19"/>
       <c r="B13" s="10" t="s">
         <v>16</v>
@@ -3034,7 +3174,7 @@
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
     </row>
-    <row r="14" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A14" s="19"/>
       <c r="B14" s="10" t="s">
         <v>17</v>
@@ -3095,7 +3235,7 @@
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
     </row>
-    <row r="15" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A15" s="19"/>
       <c r="B15" s="10" t="s">
         <v>18</v>
@@ -3158,7 +3298,7 @@
       </c>
       <c r="AD15" s="8"/>
     </row>
-    <row r="16" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A16" s="19" t="s">
         <v>24</v>
       </c>
@@ -3227,7 +3367,7 @@
       </c>
       <c r="AD16" s="8"/>
     </row>
-    <row r="17" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
       <c r="B17" s="11" t="s">
         <v>19</v>
@@ -3286,7 +3426,7 @@
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
     </row>
-    <row r="18" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A18" s="19"/>
       <c r="B18" s="11" t="s">
         <v>20</v>
@@ -3295,7 +3435,7 @@
         <v>65</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E18" s="8"/>
       <c r="G18" s="18"/>
@@ -3347,7 +3487,7 @@
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
     </row>
-    <row r="19" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A19" s="19" t="s">
         <v>25</v>
       </c>
@@ -3414,7 +3554,7 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A20" s="19"/>
       <c r="B20" s="11" t="s">
         <v>21</v>
@@ -3467,7 +3607,7 @@
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
     </row>
-    <row r="21" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3505,7 +3645,7 @@
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
     </row>
-    <row r="22" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3513,7 +3653,7 @@
       <c r="E22" s="8"/>
       <c r="G22" s="18"/>
       <c r="H22" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>113</v>
@@ -3537,7 +3677,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3571,7 +3711,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3601,7 +3741,7 @@
       </c>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3633,7 +3773,7 @@
       </c>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="G26" s="18"/>
       <c r="H26" s="6" t="s">
         <v>38</v>
@@ -3658,7 +3798,7 @@
       </c>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="G27" s="18"/>
       <c r="H27" s="6" t="s">
         <v>27</v>
@@ -3674,105 +3814,105 @@
         <v>62</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q27" s="8"/>
     </row>
-    <row r="28" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
     </row>
-    <row r="32" spans="1:30" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" ht="19.2" x14ac:dyDescent="0.45">
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" spans="9:13" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="9:13" ht="19.2" x14ac:dyDescent="0.45">
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
     </row>
-    <row r="34" spans="9:13" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="9:13" ht="19.2" x14ac:dyDescent="0.45">
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
     </row>
-    <row r="35" spans="9:13" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="9:13" ht="19.2" x14ac:dyDescent="0.45">
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" spans="9:13" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="9:13" ht="19.2" x14ac:dyDescent="0.45">
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="9:13" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="9:13" ht="19.2" x14ac:dyDescent="0.45">
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
     </row>
-    <row r="38" spans="9:13" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="9:13" ht="19.2" x14ac:dyDescent="0.45">
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
     </row>
-    <row r="39" spans="9:13" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="9:13" ht="19.2" x14ac:dyDescent="0.45">
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
     </row>
-    <row r="40" spans="9:13" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="9:13" ht="19.2" x14ac:dyDescent="0.45">
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
     </row>
-    <row r="41" spans="9:13" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="9:13" ht="19.2" x14ac:dyDescent="0.45">
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -3781,20 +3921,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="Y2:Y5"/>
-    <mergeCell ref="Y6:Y10"/>
-    <mergeCell ref="Y11:Y15"/>
-    <mergeCell ref="Y16:Y19"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="S5:S10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="S16:S18"/>
     <mergeCell ref="G25:G27"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="M4:M6"/>
@@ -3808,6 +3934,20 @@
     <mergeCell ref="G7:G13"/>
     <mergeCell ref="G14:G22"/>
     <mergeCell ref="G23:G24"/>
+    <mergeCell ref="Y2:Y5"/>
+    <mergeCell ref="Y6:Y10"/>
+    <mergeCell ref="Y11:Y15"/>
+    <mergeCell ref="Y16:Y19"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="S5:S10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="S16:S18"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="S19:S20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3820,16 +3960,16 @@
   <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="15.58203125" customWidth="1"/>
-    <col min="5" max="5" width="40.58203125" customWidth="1"/>
+    <col min="1" max="4" width="15.59765625" customWidth="1"/>
+    <col min="5" max="5" width="40.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>126</v>
       </c>
@@ -3843,39 +3983,43 @@
         <v>131</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="9"/>
+        <v>156</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>201</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>135</v>
       </c>
@@ -3885,153 +4029,173 @@
       <c r="C4" s="9"/>
       <c r="D4" s="15"/>
       <c r="E4" s="16" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>204</v>
+      </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>208</v>
+      </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
         <v>143</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>212</v>
+      </c>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>116</v>
       </c>
@@ -4040,40 +4204,44 @@
       <c r="D16" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>141</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A19" s="9" t="s">
         <v>137</v>
       </c>
@@ -4087,40 +4255,44 @@
         <v>148</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>138</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>217</v>
+      </c>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>105</v>
@@ -4128,10 +4300,12 @@
       <c r="D22" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>218</v>
+      </c>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
         <v>129</v>
       </c>
@@ -4149,113 +4323,129 @@
       </c>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A24" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>219</v>
+      </c>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A25" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" s="9"/>
+        <v>162</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>220</v>
+      </c>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>140</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="15"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27" s="9"/>
+        <v>156</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>222</v>
+      </c>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
         <v>122</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>223</v>
+      </c>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>224</v>
+      </c>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A31" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
         <v>27</v>
       </c>
@@ -4263,17 +4453,17 @@
         <v>134</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>143</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>136</v>
       </c>
@@ -4287,128 +4477,146 @@
         <v>146</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A35" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A37" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>227</v>
+      </c>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A38" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A39" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A40" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>230</v>
+      </c>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A41" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A42" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="15"/>
-      <c r="E42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A43" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>29</v>
@@ -4416,62 +4624,72 @@
       <c r="D43" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" s="9"/>
+        <v>156</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A45" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>235</v>
+      </c>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A46" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E46" s="9"/>
+        <v>184</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>236</v>
+      </c>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A47" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="9"/>
       <c r="D47" s="15"/>
-      <c r="E47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -4479,7 +4697,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -4487,7 +4705,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -4495,7 +4713,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -4503,7 +4721,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -4511,7 +4729,7 @@
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -4519,7 +4737,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -4527,7 +4745,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
     </row>
-    <row r="55" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -4535,7 +4753,7 @@
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
     </row>
-    <row r="56" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -4543,7 +4761,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -4551,7 +4769,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -4559,7 +4777,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -4567,7 +4785,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -4575,7 +4793,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -4583,7 +4801,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -4591,7 +4809,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -4599,7 +4817,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
     </row>
-    <row r="64" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -4607,7 +4825,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
     </row>
-    <row r="65" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -4615,7 +4833,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -4623,7 +4841,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -4631,7 +4849,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -4639,7 +4857,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
     </row>
-    <row r="69" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -4647,7 +4865,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -4655,7 +4873,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -4663,7 +4881,7 @@
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -4671,7 +4889,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
     </row>
-    <row r="73" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -4679,7 +4897,7 @@
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
     </row>
-    <row r="74" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -4687,7 +4905,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
     </row>
-    <row r="75" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -4695,7 +4913,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -4703,7 +4921,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
     </row>
-    <row r="77" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -4711,7 +4929,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
     </row>
-    <row r="78" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -4719,7 +4937,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
     </row>
-    <row r="79" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -4727,7 +4945,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
     </row>
-    <row r="80" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -4735,7 +4953,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
     </row>
-    <row r="81" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -4743,7 +4961,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
     </row>
-    <row r="82" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -4751,7 +4969,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
     </row>
-    <row r="83" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -4759,7 +4977,7 @@
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
     </row>
-    <row r="84" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -4767,7 +4985,7 @@
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
     </row>
-    <row r="85" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -4775,7 +4993,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
     </row>
-    <row r="86" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -4783,7 +5001,7 @@
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
     </row>
-    <row r="87" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -4791,7 +5009,7 @@
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
     </row>
-    <row r="88" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -4799,7 +5017,7 @@
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
     </row>
-    <row r="89" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -4807,7 +5025,7 @@
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
     </row>
-    <row r="90" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -4815,7 +5033,7 @@
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
     </row>
-    <row r="91" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -4823,7 +5041,7 @@
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
     </row>
-    <row r="92" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -4831,7 +5049,7 @@
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
     </row>
-    <row r="93" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -4839,7 +5057,7 @@
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
     </row>
-    <row r="94" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -4847,7 +5065,7 @@
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
     </row>
-    <row r="95" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -4855,7 +5073,7 @@
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
     </row>
-    <row r="96" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -4863,7 +5081,7 @@
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
     </row>
-    <row r="97" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -4871,7 +5089,7 @@
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
     </row>
-    <row r="98" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -4879,7 +5097,7 @@
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
     </row>
-    <row r="99" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -4887,7 +5105,7 @@
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
     </row>
-    <row r="100" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -4895,7 +5113,7 @@
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
     </row>
-    <row r="101" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -4903,7 +5121,7 @@
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
     </row>
-    <row r="102" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -4911,7 +5129,7 @@
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
     </row>
-    <row r="103" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -4919,7 +5137,7 @@
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
     </row>
-    <row r="104" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -4927,7 +5145,7 @@
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
     </row>
-    <row r="105" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -4935,7 +5153,7 @@
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
     </row>
-    <row r="106" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -4943,7 +5161,7 @@
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
     </row>
-    <row r="107" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -4951,7 +5169,7 @@
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
     </row>
-    <row r="108" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -4959,7 +5177,7 @@
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
     </row>
-    <row r="109" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -4967,7 +5185,7 @@
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
     </row>
-    <row r="110" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -4975,7 +5193,7 @@
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
     </row>
-    <row r="111" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -4983,7 +5201,7 @@
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
     </row>
-    <row r="112" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -4991,7 +5209,7 @@
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
     </row>
-    <row r="113" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -4999,7 +5217,7 @@
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
     </row>
-    <row r="114" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -5007,7 +5225,7 @@
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
     </row>
-    <row r="115" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -5015,7 +5233,7 @@
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
     </row>
-    <row r="116" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -5023,7 +5241,7 @@
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
     </row>
-    <row r="117" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -5031,7 +5249,7 @@
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
     </row>
-    <row r="118" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -5039,7 +5257,7 @@
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
     </row>
-    <row r="119" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -5047,7 +5265,7 @@
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
     </row>
-    <row r="120" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -5055,7 +5273,7 @@
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
     </row>
-    <row r="121" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -5063,7 +5281,7 @@
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
     </row>
-    <row r="122" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -5071,7 +5289,7 @@
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
     </row>
-    <row r="123" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -5079,7 +5297,7 @@
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -5087,7 +5305,7 @@
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
     </row>
-    <row r="125" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -5095,7 +5313,7 @@
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -5103,7 +5321,7 @@
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
     </row>
-    <row r="127" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -5111,7 +5329,7 @@
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -5119,7 +5337,7 @@
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
     </row>
-    <row r="129" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -5127,7 +5345,7 @@
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -5135,7 +5353,7 @@
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
     </row>
-    <row r="131" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -5143,7 +5361,7 @@
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -5151,7 +5369,7 @@
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
     </row>
-    <row r="133" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -5159,7 +5377,7 @@
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -5167,7 +5385,7 @@
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
     </row>
-    <row r="135" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -5175,7 +5393,7 @@
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
     </row>
-    <row r="136" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -5183,7 +5401,7 @@
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
     </row>
-    <row r="137" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -5191,7 +5409,7 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -5199,7 +5417,7 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -5207,7 +5425,7 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -5215,7 +5433,7 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -5223,7 +5441,7 @@
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -5231,7 +5449,7 @@
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -5239,7 +5457,7 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -5247,7 +5465,7 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -5255,7 +5473,7 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -5263,7 +5481,7 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -5271,7 +5489,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -5279,7 +5497,7 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -5287,7 +5505,7 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -5295,7 +5513,7 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -5303,7 +5521,7 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -5311,7 +5529,7 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -5319,7 +5537,7 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -5327,7 +5545,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -5335,7 +5553,7 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -5343,7 +5561,7 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -5351,7 +5569,7 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -5359,7 +5577,7 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -5367,7 +5585,7 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -5375,7 +5593,7 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -5383,7 +5601,7 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -5391,7 +5609,7 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -5399,7 +5617,7 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5407,7 +5625,7 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5415,7 +5633,7 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -5423,7 +5641,7 @@
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5431,7 +5649,7 @@
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5439,7 +5657,7 @@
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5447,7 +5665,7 @@
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5455,7 +5673,7 @@
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -5463,7 +5681,7 @@
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5471,7 +5689,7 @@
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -5479,7 +5697,7 @@
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -5487,7 +5705,7 @@
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -5495,7 +5713,7 @@
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -5503,7 +5721,7 @@
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -5511,7 +5729,7 @@
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -5519,7 +5737,7 @@
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -5527,7 +5745,7 @@
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -5535,7 +5753,7 @@
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -5543,7 +5761,7 @@
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -5551,7 +5769,7 @@
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -5559,7 +5777,7 @@
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -5567,7 +5785,7 @@
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -5575,7 +5793,7 @@
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -5583,7 +5801,7 @@
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -5591,7 +5809,7 @@
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
     </row>
-    <row r="188" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -5599,7 +5817,7 @@
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
     </row>
-    <row r="189" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -5607,7 +5825,7 @@
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
     </row>
-    <row r="190" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -5615,7 +5833,7 @@
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
     </row>
-    <row r="191" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -5623,7 +5841,7 @@
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -5631,7 +5849,7 @@
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
     </row>
-    <row r="193" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -5639,7 +5857,7 @@
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
